--- a/Backlog Sprint.xlsx
+++ b/Backlog Sprint.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pi\PI-1o-semestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Luscalves\Documents\Bandtec\OneSolutions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23D7CD22-6293-425F-ABCB-84EAAE95CCB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2438A6A7-675E-4A93-BF2E-87C9BD3861F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{15C77D7C-C8EB-4137-B167-53689B4808DF}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{15C77D7C-C8EB-4137-B167-53689B4808DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,9 +35,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Requisitos Sprint 2</t>
-  </si>
-  <si>
     <t>Marcelo</t>
   </si>
   <si>
@@ -110,17 +107,20 @@
     <t>João</t>
   </si>
   <si>
-    <t>Notas por integrante</t>
-  </si>
-  <si>
-    <t>Média</t>
+    <t>Entregáveis</t>
+  </si>
+  <si>
+    <t>Final</t>
+  </si>
+  <si>
+    <t>Planilha de Sprints</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,16 +157,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -178,21 +198,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -530,9 +535,59 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -542,48 +597,90 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -592,21 +689,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
@@ -615,170 +703,214 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,7 +931,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1095,665 +1227,575 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B20147F5-1783-4C3D-8F98-0699CC9A293A}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="B1:K26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="V24" sqref="V24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="10.7109375" style="3" customWidth="1"/>
-    <col min="6" max="9" width="10.7109375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="63" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="65"/>
+    </row>
+    <row r="3" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="66"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+    </row>
+    <row r="4" spans="2:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="69"/>
+      <c r="C4" s="70"/>
+      <c r="D4" s="70"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="71"/>
+    </row>
+    <row r="5" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="58" t="s">
+      <c r="K5" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="38" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="52"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="39"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="4" t="s">
+    </row>
+    <row r="6" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="73"/>
+    </row>
+    <row r="7" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="20"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="74"/>
+    </row>
+    <row r="8" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="59" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="60"/>
+      <c r="J8" s="60"/>
+      <c r="K8" s="61"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="9">
         <v>3</v>
       </c>
-      <c r="I3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="J3" s="40"/>
-    </row>
-    <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="41" t="s">
+      <c r="G9" s="9">
+        <v>5</v>
+      </c>
+      <c r="H9" s="9">
+        <v>3</v>
+      </c>
+      <c r="I9" s="9">
+        <v>3</v>
+      </c>
+      <c r="J9" s="10">
+        <v>8</v>
+      </c>
+      <c r="K9" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="3">
+        <v>3</v>
+      </c>
+      <c r="G10" s="3">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3">
+        <v>3</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
+      <c r="J10" s="11">
+        <v>5</v>
+      </c>
+      <c r="K10" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="4">
+        <v>8</v>
+      </c>
+      <c r="G11" s="4">
+        <v>8</v>
+      </c>
+      <c r="H11" s="4">
+        <v>5</v>
+      </c>
+      <c r="I11" s="4">
+        <v>8</v>
+      </c>
+      <c r="J11" s="12">
+        <v>13</v>
+      </c>
+      <c r="K11" s="56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="59" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="60"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="62"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="6">
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="2">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2">
+        <v>8</v>
+      </c>
+      <c r="H13" s="2">
+        <v>5</v>
+      </c>
+      <c r="I13" s="2">
         <v>3</v>
       </c>
-      <c r="F5" s="6">
-        <v>5</v>
-      </c>
-      <c r="G5" s="6">
+      <c r="J13" s="2">
         <v>3</v>
       </c>
-      <c r="H5" s="6">
-        <v>3</v>
-      </c>
-      <c r="I5" s="6">
-        <v>8</v>
-      </c>
-      <c r="J5" s="13">
-        <v>5</v>
-      </c>
-      <c r="K5" s="14"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="7">
-        <v>3</v>
-      </c>
-      <c r="F6" s="7">
-        <v>5</v>
-      </c>
-      <c r="G6" s="7">
-        <v>3</v>
-      </c>
-      <c r="H6" s="7">
-        <v>3</v>
-      </c>
-      <c r="I6" s="7">
-        <v>5</v>
-      </c>
-      <c r="J6" s="13">
-        <v>5</v>
-      </c>
-      <c r="K6" s="14"/>
-    </row>
-    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="34" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="8">
-        <v>8</v>
-      </c>
-      <c r="F7" s="8">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8">
-        <v>5</v>
-      </c>
-      <c r="H7" s="8">
-        <v>8</v>
-      </c>
-      <c r="I7" s="8">
-        <v>13</v>
-      </c>
-      <c r="J7" s="13">
-        <v>8</v>
-      </c>
-      <c r="K7" s="14"/>
-    </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-    </row>
-    <row r="9" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="6">
-        <v>8</v>
-      </c>
-      <c r="F10" s="6">
-        <v>8</v>
-      </c>
-      <c r="G10" s="6">
-        <v>5</v>
-      </c>
-      <c r="H10" s="6">
-        <v>3</v>
-      </c>
-      <c r="I10" s="6">
-        <v>3</v>
-      </c>
-      <c r="J10" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="7">
-        <v>8</v>
-      </c>
-      <c r="F11" s="7">
-        <v>13</v>
-      </c>
-      <c r="G11" s="7">
-        <v>5</v>
-      </c>
-      <c r="H11" s="7">
-        <v>5</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5</v>
-      </c>
-      <c r="J11" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="34" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="8">
-        <v>8</v>
-      </c>
-      <c r="F12" s="8">
-        <v>8</v>
-      </c>
-      <c r="G12" s="8">
-        <v>8</v>
-      </c>
-      <c r="H12" s="8">
-        <v>3</v>
-      </c>
-      <c r="I12" s="8">
-        <v>3</v>
-      </c>
-      <c r="J12" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="45"/>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="45"/>
-    </row>
-    <row r="14" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="42"/>
+      <c r="K13" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="41" t="s">
+        <v>8</v>
+      </c>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="43"/>
-    </row>
-    <row r="15" spans="1:11" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
+      <c r="E14" s="43"/>
+      <c r="F14" s="3">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>13</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="6">
-        <v>5</v>
-      </c>
-      <c r="F15" s="6">
-        <v>8</v>
-      </c>
-      <c r="G15" s="6">
+      <c r="H14" s="3">
+        <v>5</v>
+      </c>
+      <c r="I14" s="3">
+        <v>5</v>
+      </c>
+      <c r="J14" s="3">
+        <v>5</v>
+      </c>
+      <c r="K14" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="4">
+        <v>8</v>
+      </c>
+      <c r="G15" s="4">
+        <v>8</v>
+      </c>
+      <c r="H15" s="4">
+        <v>8</v>
+      </c>
+      <c r="I15" s="4">
         <v>3</v>
       </c>
-      <c r="H15" s="6">
+      <c r="J15" s="4">
         <v>3</v>
       </c>
-      <c r="I15" s="6">
-        <v>8</v>
-      </c>
-      <c r="J15" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="K15" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="60"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="60"/>
+      <c r="K16" s="62"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="2">
+        <v>5</v>
+      </c>
+      <c r="G17" s="2">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2">
+        <v>3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>3</v>
+      </c>
+      <c r="J17" s="2">
+        <v>8</v>
+      </c>
+      <c r="K17" s="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="3">
+        <v>8</v>
+      </c>
+      <c r="G18" s="3">
+        <v>13</v>
+      </c>
+      <c r="H18" s="3">
+        <v>5</v>
+      </c>
+      <c r="I18" s="3">
+        <v>8</v>
+      </c>
+      <c r="J18" s="3">
+        <v>13</v>
+      </c>
+      <c r="K18" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="44" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="7">
-        <v>8</v>
-      </c>
-      <c r="F16" s="7">
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="4">
+        <v>8</v>
+      </c>
+      <c r="H19" s="4">
+        <v>8</v>
+      </c>
+      <c r="I19" s="4">
+        <v>8</v>
+      </c>
+      <c r="J19" s="4">
+        <v>5</v>
+      </c>
+      <c r="K19" s="56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="62"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="13">
+        <v>8</v>
+      </c>
+      <c r="G21" s="9">
+        <v>5</v>
+      </c>
+      <c r="H21" s="9">
+        <v>3</v>
+      </c>
+      <c r="I21" s="9">
         <v>13</v>
       </c>
-      <c r="G16" s="7">
-        <v>5</v>
-      </c>
-      <c r="H16" s="7">
-        <v>8</v>
-      </c>
-      <c r="I16" s="7">
+      <c r="J21" s="9">
+        <v>8</v>
+      </c>
+      <c r="K21" s="57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="6">
+        <v>8</v>
+      </c>
+      <c r="G22" s="4">
+        <v>5</v>
+      </c>
+      <c r="H22" s="4">
+        <v>8</v>
+      </c>
+      <c r="I22" s="4">
         <v>13</v>
       </c>
-      <c r="J16" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="8">
-        <v>5</v>
-      </c>
-      <c r="F17" s="8">
-        <v>8</v>
-      </c>
-      <c r="G17" s="8">
-        <v>8</v>
-      </c>
-      <c r="H17" s="8">
-        <v>8</v>
-      </c>
-      <c r="I17" s="8">
-        <v>5</v>
-      </c>
-      <c r="J17" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
-      <c r="I18" s="45"/>
-    </row>
-    <row r="19" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="42"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="43"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="9">
-        <v>8</v>
-      </c>
-      <c r="F20" s="6">
-        <v>5</v>
-      </c>
-      <c r="G20" s="6">
-        <v>3</v>
-      </c>
-      <c r="H20" s="6">
+      <c r="J22" s="4">
+        <v>5</v>
+      </c>
+      <c r="K22" s="58">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="60"/>
+      <c r="K23" s="62"/>
+    </row>
+    <row r="24" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="7">
+        <v>8</v>
+      </c>
+      <c r="G24" s="5">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2">
+        <v>8</v>
+      </c>
+      <c r="I24" s="2">
+        <v>8</v>
+      </c>
+      <c r="J24" s="2">
+        <v>8</v>
+      </c>
+      <c r="K24" s="54">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="8">
         <v>13</v>
       </c>
-      <c r="I20" s="6">
-        <v>8</v>
-      </c>
-      <c r="J20" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="20"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="10">
-        <v>8</v>
-      </c>
-      <c r="F21" s="8">
-        <v>5</v>
-      </c>
-      <c r="G21" s="8">
-        <v>8</v>
-      </c>
-      <c r="H21" s="8">
+      <c r="G25" s="8">
+        <v>8</v>
+      </c>
+      <c r="H25" s="3">
+        <v>8</v>
+      </c>
+      <c r="I25" s="3">
         <v>13</v>
       </c>
-      <c r="I21" s="8">
-        <v>5</v>
-      </c>
-      <c r="J21" s="13">
-        <v>8</v>
-      </c>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="44"/>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="45"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="45"/>
-    </row>
-    <row r="23" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="43"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="11">
-        <v>8</v>
-      </c>
-      <c r="F24" s="9">
-        <v>8</v>
-      </c>
-      <c r="G24" s="6">
-        <v>8</v>
-      </c>
-      <c r="H24" s="6">
-        <v>8</v>
-      </c>
-      <c r="I24" s="6">
-        <v>8</v>
-      </c>
-      <c r="J24" s="13">
-        <v>8</v>
-      </c>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="1:11" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="28" t="s">
+      <c r="J25" s="3">
+        <v>8</v>
+      </c>
+      <c r="K25" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="12">
-        <v>13</v>
-      </c>
-      <c r="F25" s="12">
-        <v>8</v>
-      </c>
-      <c r="G25" s="7">
-        <v>8</v>
-      </c>
-      <c r="H25" s="7">
-        <v>13</v>
-      </c>
-      <c r="I25" s="7">
-        <v>8</v>
-      </c>
-      <c r="J25" s="13">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="1">
-        <v>5</v>
-      </c>
-      <c r="F26" s="10">
-        <v>5</v>
-      </c>
-      <c r="G26" s="8">
-        <v>5</v>
-      </c>
-      <c r="H26" s="8">
-        <v>5</v>
-      </c>
-      <c r="I26" s="8">
-        <v>5</v>
-      </c>
-      <c r="J26" s="13">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="15"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="15"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="2"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="15"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="15"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="15"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="15"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="15"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="15"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="15"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="2"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="1">
+        <v>5</v>
+      </c>
+      <c r="G26" s="6">
+        <v>5</v>
+      </c>
+      <c r="H26" s="4">
+        <v>5</v>
+      </c>
+      <c r="I26" s="4">
+        <v>5</v>
+      </c>
+      <c r="J26" s="4">
+        <v>5</v>
+      </c>
+      <c r="K26" s="56">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="J1:J3"/>
-    <mergeCell ref="A14:I14"/>
-    <mergeCell ref="A19:I19"/>
-    <mergeCell ref="A23:I23"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A13:I13"/>
-    <mergeCell ref="A18:I18"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="E1:I2"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A28:D28"/>
+  <mergeCells count="27">
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="K5:K7"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B24:E24"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B2:K4"/>
+    <mergeCell ref="B5:E7"/>
+    <mergeCell ref="B8:K8"/>
+    <mergeCell ref="B20:K20"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B16:K16"/>
+    <mergeCell ref="B12:K12"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B15:E15"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
